--- a/Config/EnemyConfig.xlsx
+++ b/Config/EnemyConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D34EDB7-8AFD-4B49-A44C-90369252A8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E1489-914E-45D7-A610-7EB57C8C7462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7,6,1|1,7,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>两只测试怪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +114,10 @@
   </si>
   <si>
     <t>EnemyInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,1|1,7,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -534,13 +534,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Config/EnemyConfig.xlsx
+++ b/Config/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E1489-914E-45D7-A610-7EB57C8C7462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FCD872-670E-4814-8C44-1A91A24A3EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="5325" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,6,1|1,7,1</t>
+    <t>6,6,2|1,7,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Config/EnemyConfig.xlsx
+++ b/Config/EnemyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FCD872-670E-4814-8C44-1A91A24A3EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E85FF-6809-475B-B988-7E63636593FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5895" yWindow="6990" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,6,2|1,7,2</t>
+    <t>6,6,2|1,7,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +461,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Config/EnemyConfig.xlsx
+++ b/Config/EnemyConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1E85FF-6809-475B-B988-7E63636593FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E96BF-D3AC-4CA1-8FB4-87C83CD006A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="6990" windowWidth="28800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12840" yWindow="6960" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>#</t>
   </si>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>6,6,2|1,7,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六只测试怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,6,2|2,6,2|3,6,2|4,6,2|5,6,2|6,6,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,6 +551,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/EnemyConfig.xlsx
+++ b/Config/EnemyConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863E96BF-D3AC-4CA1-8FB4-87C83CD006A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEAEE3-8BE1-4460-BB64-CB2F36FB4117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="6960" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9405" yWindow="7290" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,6,2|2,6,2|3,6,2|4,6,2|5,6,2|6,6,2</t>
+    <t>1,6,2|2,6,2|3,6,2|4,6,2|5,6,2|6,6,2|1,7,3|5,7,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
